--- a/documents/planning v0.1.xlsx
+++ b/documents/planning v0.1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AC1418-4B0A-4EDE-9BAE-A61993CF6E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEB655B-C40D-4474-9E4F-A84CE5F6B554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2042,8 +2042,8 @@
   <dimension ref="A1:BS30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="C9" s="46"/>
       <c r="D9" s="16">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E9" s="57">
         <v>45061</v>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="C11" s="46"/>
       <c r="D11" s="16">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="E11" s="57">
         <f>F10</f>
@@ -4689,6 +4689,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4976,36 +5005,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5024,24 +5044,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documents/planning v0.1.xlsx
+++ b/documents/planning v0.1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEB655B-C40D-4474-9E4F-A84CE5F6B554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3003F5-BF84-495E-A4A9-BAD24F4B4DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,9 +117,6 @@
     <t>TAAK</t>
   </si>
   <si>
-    <t>Voeg nieuwe rijen BOVEN deze in</t>
-  </si>
-  <si>
     <t>Begin project:</t>
   </si>
   <si>
@@ -253,6 +250,9 @@
   </si>
   <si>
     <t>admin pagina bestellingen bijhouden</t>
+  </si>
+  <si>
+    <t>login en sign up functie</t>
   </si>
 </sst>
 </file>
@@ -269,7 +269,7 @@
     <numFmt numFmtId="170" formatCode="d\ mmm\ yyyy"/>
     <numFmt numFmtId="171" formatCode="d"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,13 +299,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -323,14 +316,6 @@
       <b/>
       <sz val="9"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1111,72 +1096,72 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="2" applyFill="0">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyFill="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyFill="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1197,48 +1182,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1256,23 +1232,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
@@ -1281,83 +1257,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="11" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="11" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="11" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="11" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="12" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="12" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="12" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="12" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="3" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="169" fontId="7" fillId="3" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="4" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="169" fontId="7" fillId="4" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="9" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="9" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1399,13 +1369,13 @@
     <xf numFmtId="170" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2042,13 +2012,13 @@
   <dimension ref="A1:BS30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AW26" sqref="AW26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="38" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="35" customWidth="1"/>
     <col min="2" max="2" width="19.88671875" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
@@ -2060,433 +2030,433 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
-        <v>43</v>
+      <c r="B1" s="39" t="s">
+        <v>42</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="27"/>
+      <c r="F1" s="24"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="52" t="s">
-        <v>22</v>
+      <c r="I1" s="49" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="53" t="s">
-        <v>23</v>
+      <c r="B2" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="80" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="81"/>
-      <c r="E3" s="82">
+      <c r="B3" s="41"/>
+      <c r="C3" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="76"/>
+      <c r="E3" s="77">
         <v>45061</v>
       </c>
-      <c r="F3" s="82"/>
+      <c r="F3" s="77"/>
     </row>
     <row r="4" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="80" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="81"/>
+      <c r="C4" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="76"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="77">
+      <c r="I4" s="72">
         <f>I5</f>
         <v>45061</v>
       </c>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="77">
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="72">
         <f>P5</f>
         <v>45068</v>
       </c>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="79"/>
-      <c r="W4" s="77">
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="72">
         <f>W5</f>
         <v>45075</v>
       </c>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="79"/>
-      <c r="AD4" s="77">
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="73"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="72">
         <f>AD5</f>
         <v>45082</v>
       </c>
-      <c r="AE4" s="78"/>
-      <c r="AF4" s="78"/>
-      <c r="AG4" s="78"/>
-      <c r="AH4" s="78"/>
-      <c r="AI4" s="78"/>
-      <c r="AJ4" s="79"/>
-      <c r="AK4" s="77">
+      <c r="AE4" s="73"/>
+      <c r="AF4" s="73"/>
+      <c r="AG4" s="73"/>
+      <c r="AH4" s="73"/>
+      <c r="AI4" s="73"/>
+      <c r="AJ4" s="74"/>
+      <c r="AK4" s="72">
         <f>AK5</f>
         <v>45089</v>
       </c>
-      <c r="AL4" s="78"/>
-      <c r="AM4" s="78"/>
-      <c r="AN4" s="78"/>
-      <c r="AO4" s="78"/>
-      <c r="AP4" s="78"/>
-      <c r="AQ4" s="79"/>
-      <c r="AR4" s="77">
+      <c r="AL4" s="73"/>
+      <c r="AM4" s="73"/>
+      <c r="AN4" s="73"/>
+      <c r="AO4" s="73"/>
+      <c r="AP4" s="73"/>
+      <c r="AQ4" s="74"/>
+      <c r="AR4" s="72">
         <f>AR5</f>
         <v>45096</v>
       </c>
-      <c r="AS4" s="78"/>
-      <c r="AT4" s="78"/>
-      <c r="AU4" s="78"/>
-      <c r="AV4" s="78"/>
-      <c r="AW4" s="78"/>
-      <c r="AX4" s="79"/>
-      <c r="AY4" s="77">
+      <c r="AS4" s="73"/>
+      <c r="AT4" s="73"/>
+      <c r="AU4" s="73"/>
+      <c r="AV4" s="73"/>
+      <c r="AW4" s="73"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="72">
         <f>AY5</f>
         <v>45103</v>
       </c>
-      <c r="AZ4" s="78"/>
-      <c r="BA4" s="78"/>
-      <c r="BB4" s="78"/>
-      <c r="BC4" s="78"/>
-      <c r="BD4" s="78"/>
-      <c r="BE4" s="79"/>
-      <c r="BF4" s="77">
+      <c r="AZ4" s="73"/>
+      <c r="BA4" s="73"/>
+      <c r="BB4" s="73"/>
+      <c r="BC4" s="73"/>
+      <c r="BD4" s="73"/>
+      <c r="BE4" s="74"/>
+      <c r="BF4" s="72">
         <f>BF5</f>
         <v>45110</v>
       </c>
-      <c r="BG4" s="78"/>
-      <c r="BH4" s="78"/>
-      <c r="BI4" s="78"/>
-      <c r="BJ4" s="78"/>
-      <c r="BK4" s="78"/>
-      <c r="BL4" s="79"/>
-      <c r="BM4" s="77">
+      <c r="BG4" s="73"/>
+      <c r="BH4" s="73"/>
+      <c r="BI4" s="73"/>
+      <c r="BJ4" s="73"/>
+      <c r="BK4" s="73"/>
+      <c r="BL4" s="74"/>
+      <c r="BM4" s="72">
         <f>BM5</f>
         <v>45117</v>
       </c>
-      <c r="BN4" s="78"/>
-      <c r="BO4" s="78"/>
-      <c r="BP4" s="78"/>
-      <c r="BQ4" s="78"/>
-      <c r="BR4" s="78"/>
-      <c r="BS4" s="79"/>
+      <c r="BN4" s="73"/>
+      <c r="BO4" s="73"/>
+      <c r="BP4" s="73"/>
+      <c r="BQ4" s="73"/>
+      <c r="BR4" s="73"/>
+      <c r="BS4" s="74"/>
     </row>
     <row r="5" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="I5" s="61">
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="I5" s="58">
         <f>Begin_project-WEEKDAY(Begin_project,1)+2+7*(Weergegeven_week-1)</f>
         <v>45061</v>
       </c>
-      <c r="J5" s="62">
+      <c r="J5" s="59">
         <f>I5+1</f>
         <v>45062</v>
       </c>
-      <c r="K5" s="62">
+      <c r="K5" s="59">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
         <v>45063</v>
       </c>
-      <c r="L5" s="62">
+      <c r="L5" s="59">
         <f t="shared" si="0"/>
         <v>45064</v>
       </c>
-      <c r="M5" s="62">
+      <c r="M5" s="59">
         <f t="shared" si="0"/>
         <v>45065</v>
       </c>
-      <c r="N5" s="62">
+      <c r="N5" s="59">
         <f t="shared" si="0"/>
         <v>45066</v>
       </c>
-      <c r="O5" s="63">
+      <c r="O5" s="60">
         <f t="shared" si="0"/>
         <v>45067</v>
       </c>
-      <c r="P5" s="61">
+      <c r="P5" s="58">
         <f>O5+1</f>
         <v>45068</v>
       </c>
-      <c r="Q5" s="62">
+      <c r="Q5" s="59">
         <f>P5+1</f>
         <v>45069</v>
       </c>
-      <c r="R5" s="62">
+      <c r="R5" s="59">
         <f t="shared" si="0"/>
         <v>45070</v>
       </c>
-      <c r="S5" s="62">
+      <c r="S5" s="59">
         <f t="shared" si="0"/>
         <v>45071</v>
       </c>
-      <c r="T5" s="62">
+      <c r="T5" s="59">
         <f t="shared" si="0"/>
         <v>45072</v>
       </c>
-      <c r="U5" s="62">
+      <c r="U5" s="59">
         <f t="shared" si="0"/>
         <v>45073</v>
       </c>
-      <c r="V5" s="63">
+      <c r="V5" s="60">
         <f t="shared" si="0"/>
         <v>45074</v>
       </c>
-      <c r="W5" s="61">
+      <c r="W5" s="58">
         <f>V5+1</f>
         <v>45075</v>
       </c>
-      <c r="X5" s="62">
+      <c r="X5" s="59">
         <f>W5+1</f>
         <v>45076</v>
       </c>
-      <c r="Y5" s="62">
+      <c r="Y5" s="59">
         <f t="shared" si="0"/>
         <v>45077</v>
       </c>
-      <c r="Z5" s="62">
+      <c r="Z5" s="59">
         <f t="shared" si="0"/>
         <v>45078</v>
       </c>
-      <c r="AA5" s="62">
+      <c r="AA5" s="59">
         <f t="shared" si="0"/>
         <v>45079</v>
       </c>
-      <c r="AB5" s="62">
+      <c r="AB5" s="59">
         <f t="shared" si="0"/>
         <v>45080</v>
       </c>
-      <c r="AC5" s="63">
+      <c r="AC5" s="60">
         <f t="shared" si="0"/>
         <v>45081</v>
       </c>
-      <c r="AD5" s="61">
+      <c r="AD5" s="58">
         <f>AC5+1</f>
         <v>45082</v>
       </c>
-      <c r="AE5" s="62">
+      <c r="AE5" s="59">
         <f>AD5+1</f>
         <v>45083</v>
       </c>
-      <c r="AF5" s="62">
+      <c r="AF5" s="59">
         <f t="shared" si="0"/>
         <v>45084</v>
       </c>
-      <c r="AG5" s="62">
+      <c r="AG5" s="59">
         <f t="shared" si="0"/>
         <v>45085</v>
       </c>
-      <c r="AH5" s="62">
+      <c r="AH5" s="59">
         <f t="shared" si="0"/>
         <v>45086</v>
       </c>
-      <c r="AI5" s="62">
+      <c r="AI5" s="59">
         <f t="shared" si="0"/>
         <v>45087</v>
       </c>
-      <c r="AJ5" s="63">
+      <c r="AJ5" s="60">
         <f t="shared" si="0"/>
         <v>45088</v>
       </c>
-      <c r="AK5" s="61">
+      <c r="AK5" s="58">
         <f>AJ5+1</f>
         <v>45089</v>
       </c>
-      <c r="AL5" s="62">
+      <c r="AL5" s="59">
         <f>AK5+1</f>
         <v>45090</v>
       </c>
-      <c r="AM5" s="62">
+      <c r="AM5" s="59">
         <f t="shared" si="0"/>
         <v>45091</v>
       </c>
-      <c r="AN5" s="62">
+      <c r="AN5" s="59">
         <f t="shared" si="0"/>
         <v>45092</v>
       </c>
-      <c r="AO5" s="62">
+      <c r="AO5" s="59">
         <f t="shared" si="0"/>
         <v>45093</v>
       </c>
-      <c r="AP5" s="62">
+      <c r="AP5" s="59">
         <f t="shared" si="0"/>
         <v>45094</v>
       </c>
-      <c r="AQ5" s="63">
+      <c r="AQ5" s="60">
         <f t="shared" si="0"/>
         <v>45095</v>
       </c>
-      <c r="AR5" s="61">
+      <c r="AR5" s="58">
         <f>AQ5+1</f>
         <v>45096</v>
       </c>
-      <c r="AS5" s="62">
+      <c r="AS5" s="59">
         <f>AR5+1</f>
         <v>45097</v>
       </c>
-      <c r="AT5" s="62">
+      <c r="AT5" s="59">
         <f t="shared" si="0"/>
         <v>45098</v>
       </c>
-      <c r="AU5" s="62">
+      <c r="AU5" s="59">
         <f t="shared" si="0"/>
         <v>45099</v>
       </c>
-      <c r="AV5" s="62">
+      <c r="AV5" s="59">
         <f t="shared" si="0"/>
         <v>45100</v>
       </c>
-      <c r="AW5" s="62">
+      <c r="AW5" s="59">
         <f t="shared" si="0"/>
         <v>45101</v>
       </c>
-      <c r="AX5" s="63">
+      <c r="AX5" s="60">
         <f t="shared" si="0"/>
         <v>45102</v>
       </c>
-      <c r="AY5" s="61">
+      <c r="AY5" s="58">
         <f>AX5+1</f>
         <v>45103</v>
       </c>
-      <c r="AZ5" s="62">
+      <c r="AZ5" s="59">
         <f>AY5+1</f>
         <v>45104</v>
       </c>
-      <c r="BA5" s="62">
+      <c r="BA5" s="59">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
         <v>45105</v>
       </c>
-      <c r="BB5" s="62">
+      <c r="BB5" s="59">
         <f t="shared" si="1"/>
         <v>45106</v>
       </c>
-      <c r="BC5" s="62">
+      <c r="BC5" s="59">
         <f t="shared" si="1"/>
         <v>45107</v>
       </c>
-      <c r="BD5" s="62">
+      <c r="BD5" s="59">
         <f t="shared" si="1"/>
         <v>45108</v>
       </c>
-      <c r="BE5" s="63">
+      <c r="BE5" s="60">
         <f t="shared" si="1"/>
         <v>45109</v>
       </c>
-      <c r="BF5" s="61">
+      <c r="BF5" s="58">
         <f>BE5+1</f>
         <v>45110</v>
       </c>
-      <c r="BG5" s="62">
+      <c r="BG5" s="59">
         <f>BF5+1</f>
         <v>45111</v>
       </c>
-      <c r="BH5" s="62">
+      <c r="BH5" s="59">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
         <v>45112</v>
       </c>
-      <c r="BI5" s="62">
+      <c r="BI5" s="59">
         <f t="shared" si="2"/>
         <v>45113</v>
       </c>
-      <c r="BJ5" s="62">
+      <c r="BJ5" s="59">
         <f t="shared" si="2"/>
         <v>45114</v>
       </c>
-      <c r="BK5" s="62">
+      <c r="BK5" s="59">
         <f t="shared" si="2"/>
         <v>45115</v>
       </c>
-      <c r="BL5" s="63">
+      <c r="BL5" s="60">
         <f t="shared" si="2"/>
         <v>45116</v>
       </c>
-      <c r="BM5" s="61">
+      <c r="BM5" s="58">
         <f>BL5+1</f>
         <v>45117</v>
       </c>
-      <c r="BN5" s="62">
+      <c r="BN5" s="59">
         <f>BM5+1</f>
         <v>45118</v>
       </c>
-      <c r="BO5" s="62">
+      <c r="BO5" s="59">
         <f t="shared" ref="BO5" si="3">BN5+1</f>
         <v>45119</v>
       </c>
-      <c r="BP5" s="62">
+      <c r="BP5" s="59">
         <f t="shared" ref="BP5" si="4">BO5+1</f>
         <v>45120</v>
       </c>
-      <c r="BQ5" s="62">
+      <c r="BQ5" s="59">
         <f t="shared" ref="BQ5" si="5">BP5+1</f>
         <v>45121</v>
       </c>
-      <c r="BR5" s="62">
+      <c r="BR5" s="59">
         <f t="shared" ref="BR5" si="6">BQ5+1</f>
         <v>45122</v>
       </c>
-      <c r="BS5" s="63">
+      <c r="BS5" s="60">
         <f t="shared" ref="BS5" si="7">BR5+1</f>
         <v>45123</v>
       </c>
     </row>
     <row r="6" spans="1:71" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" s="10" t="str">
         <f t="shared" ref="I6" si="8">LEFT(TEXT(I5,"ddd"),1)</f>
@@ -2708,7 +2678,7 @@
         <f t="shared" si="10"/>
         <v>z</v>
       </c>
-      <c r="BL6" s="66" t="str">
+      <c r="BL6" s="61" t="str">
         <f t="shared" si="10"/>
         <v>z</v>
       </c>
@@ -2736,173 +2706,173 @@
         <f t="shared" si="10"/>
         <v>z</v>
       </c>
-      <c r="BS6" s="66" t="str">
+      <c r="BS6" s="61" t="str">
         <f t="shared" si="10"/>
         <v>z</v>
       </c>
     </row>
     <row r="7" spans="1:71" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="41"/>
+      <c r="C7" s="38"/>
       <c r="E7"/>
       <c r="H7" t="str">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="24"/>
-      <c r="AI7" s="24"/>
-      <c r="AJ7" s="24"/>
-      <c r="AK7" s="24"/>
-      <c r="AL7" s="24"/>
-      <c r="AM7" s="24"/>
-      <c r="AN7" s="24"/>
-      <c r="AO7" s="24"/>
-      <c r="AP7" s="24"/>
-      <c r="AQ7" s="24"/>
-      <c r="AR7" s="24"/>
-      <c r="AS7" s="24"/>
-      <c r="AT7" s="24"/>
-      <c r="AU7" s="24"/>
-      <c r="AV7" s="24"/>
-      <c r="AW7" s="24"/>
-      <c r="AX7" s="24"/>
-      <c r="AY7" s="24"/>
-      <c r="AZ7" s="24"/>
-      <c r="BA7" s="24"/>
-      <c r="BB7" s="24"/>
-      <c r="BC7" s="24"/>
-      <c r="BD7" s="24"/>
-      <c r="BE7" s="24"/>
-      <c r="BF7" s="24"/>
-      <c r="BG7" s="24"/>
-      <c r="BH7" s="24"/>
-      <c r="BI7" s="24"/>
-      <c r="BJ7" s="24"/>
-      <c r="BK7" s="24"/>
-      <c r="BL7" s="24"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="21"/>
+      <c r="AL7" s="21"/>
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="21"/>
+      <c r="AO7" s="21"/>
+      <c r="AP7" s="21"/>
+      <c r="AQ7" s="21"/>
+      <c r="AR7" s="21"/>
+      <c r="AS7" s="21"/>
+      <c r="AT7" s="21"/>
+      <c r="AU7" s="21"/>
+      <c r="AV7" s="21"/>
+      <c r="AW7" s="21"/>
+      <c r="AX7" s="21"/>
+      <c r="AY7" s="21"/>
+      <c r="AZ7" s="21"/>
+      <c r="BA7" s="21"/>
+      <c r="BB7" s="21"/>
+      <c r="BC7" s="21"/>
+      <c r="BD7" s="21"/>
+      <c r="BE7" s="21"/>
+      <c r="BF7" s="21"/>
+      <c r="BG7" s="21"/>
+      <c r="BH7" s="21"/>
+      <c r="BI7" s="21"/>
+      <c r="BJ7" s="21"/>
+      <c r="BK7" s="21"/>
+      <c r="BL7" s="21"/>
     </row>
     <row r="8" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="45"/>
+        <v>36</v>
+      </c>
+      <c r="C8" s="42"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="str">
         <f t="shared" ref="H8:H27" si="11">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="24"/>
-      <c r="AB8" s="24"/>
-      <c r="AC8" s="24"/>
-      <c r="AD8" s="24"/>
-      <c r="AE8" s="24"/>
-      <c r="AF8" s="24"/>
-      <c r="AG8" s="24"/>
-      <c r="AH8" s="24"/>
-      <c r="AI8" s="24"/>
-      <c r="AJ8" s="24"/>
-      <c r="AK8" s="24"/>
-      <c r="AL8" s="24"/>
-      <c r="AM8" s="24"/>
-      <c r="AN8" s="24"/>
-      <c r="AO8" s="24"/>
-      <c r="AP8" s="24"/>
-      <c r="AQ8" s="24"/>
-      <c r="AR8" s="24"/>
-      <c r="AS8" s="24"/>
-      <c r="AT8" s="24"/>
-      <c r="AU8" s="24"/>
-      <c r="AV8" s="24"/>
-      <c r="AW8" s="24"/>
-      <c r="AX8" s="24"/>
-      <c r="AY8" s="24"/>
-      <c r="AZ8" s="24"/>
-      <c r="BA8" s="24"/>
-      <c r="BB8" s="24"/>
-      <c r="BC8" s="24"/>
-      <c r="BD8" s="24"/>
-      <c r="BE8" s="24"/>
-      <c r="BF8" s="24"/>
-      <c r="BG8" s="24"/>
-      <c r="BH8" s="24"/>
-      <c r="BI8" s="24"/>
-      <c r="BJ8" s="24"/>
-      <c r="BK8" s="24"/>
-      <c r="BL8" s="67"/>
-      <c r="BM8" s="76"/>
-      <c r="BN8" s="76"/>
-      <c r="BO8" s="76"/>
-      <c r="BP8" s="76"/>
-      <c r="BQ8" s="76"/>
-      <c r="BR8" s="76"/>
-      <c r="BS8" s="76"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="21"/>
+      <c r="AL8" s="21"/>
+      <c r="AM8" s="21"/>
+      <c r="AN8" s="21"/>
+      <c r="AO8" s="21"/>
+      <c r="AP8" s="21"/>
+      <c r="AQ8" s="21"/>
+      <c r="AR8" s="21"/>
+      <c r="AS8" s="21"/>
+      <c r="AT8" s="21"/>
+      <c r="AU8" s="21"/>
+      <c r="AV8" s="21"/>
+      <c r="AW8" s="21"/>
+      <c r="AX8" s="21"/>
+      <c r="AY8" s="21"/>
+      <c r="AZ8" s="21"/>
+      <c r="BA8" s="21"/>
+      <c r="BB8" s="21"/>
+      <c r="BC8" s="21"/>
+      <c r="BD8" s="21"/>
+      <c r="BE8" s="21"/>
+      <c r="BF8" s="21"/>
+      <c r="BG8" s="21"/>
+      <c r="BH8" s="21"/>
+      <c r="BI8" s="21"/>
+      <c r="BJ8" s="21"/>
+      <c r="BK8" s="21"/>
+      <c r="BL8" s="62"/>
+      <c r="BM8" s="71"/>
+      <c r="BN8" s="71"/>
+      <c r="BO8" s="71"/>
+      <c r="BP8" s="71"/>
+      <c r="BQ8" s="71"/>
+      <c r="BR8" s="71"/>
+      <c r="BS8" s="71"/>
     </row>
     <row r="9" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="46"/>
+      <c r="B9" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="43"/>
       <c r="D9" s="16">
         <v>1</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="54">
         <v>45061</v>
       </c>
-      <c r="F9" s="57">
+      <c r="F9" s="54">
         <v>45072</v>
       </c>
       <c r="G9" s="13"/>
@@ -2910,86 +2880,86 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="24"/>
-      <c r="AI9" s="24"/>
-      <c r="AJ9" s="24"/>
-      <c r="AK9" s="24"/>
-      <c r="AL9" s="24"/>
-      <c r="AM9" s="24"/>
-      <c r="AN9" s="24"/>
-      <c r="AO9" s="24"/>
-      <c r="AP9" s="24"/>
-      <c r="AQ9" s="24"/>
-      <c r="AR9" s="24"/>
-      <c r="AS9" s="24"/>
-      <c r="AT9" s="24"/>
-      <c r="AU9" s="24"/>
-      <c r="AV9" s="24"/>
-      <c r="AW9" s="24"/>
-      <c r="AX9" s="24"/>
-      <c r="AY9" s="24"/>
-      <c r="AZ9" s="24"/>
-      <c r="BA9" s="24"/>
-      <c r="BB9" s="24"/>
-      <c r="BC9" s="24"/>
-      <c r="BD9" s="24"/>
-      <c r="BE9" s="67"/>
-      <c r="BF9" s="69"/>
-      <c r="BG9" s="24"/>
-      <c r="BH9" s="71"/>
-      <c r="BI9" s="24"/>
-      <c r="BJ9" s="24"/>
-      <c r="BK9" s="24"/>
-      <c r="BL9" s="67"/>
-      <c r="BM9" s="76"/>
-      <c r="BN9" s="76"/>
-      <c r="BO9" s="76"/>
-      <c r="BP9" s="76"/>
-      <c r="BQ9" s="76"/>
-      <c r="BR9" s="76"/>
-      <c r="BS9" s="76"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21"/>
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+      <c r="AP9" s="21"/>
+      <c r="AQ9" s="21"/>
+      <c r="AR9" s="21"/>
+      <c r="AS9" s="21"/>
+      <c r="AT9" s="21"/>
+      <c r="AU9" s="21"/>
+      <c r="AV9" s="21"/>
+      <c r="AW9" s="21"/>
+      <c r="AX9" s="21"/>
+      <c r="AY9" s="21"/>
+      <c r="AZ9" s="21"/>
+      <c r="BA9" s="21"/>
+      <c r="BB9" s="21"/>
+      <c r="BC9" s="21"/>
+      <c r="BD9" s="21"/>
+      <c r="BE9" s="62"/>
+      <c r="BF9" s="64"/>
+      <c r="BG9" s="21"/>
+      <c r="BH9" s="66"/>
+      <c r="BI9" s="21"/>
+      <c r="BJ9" s="21"/>
+      <c r="BK9" s="21"/>
+      <c r="BL9" s="62"/>
+      <c r="BM9" s="71"/>
+      <c r="BN9" s="71"/>
+      <c r="BO9" s="71"/>
+      <c r="BP9" s="71"/>
+      <c r="BQ9" s="71"/>
+      <c r="BR9" s="71"/>
+      <c r="BS9" s="71"/>
     </row>
     <row r="10" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="46"/>
+      <c r="B10" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="43"/>
       <c r="D10" s="16">
         <v>1</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="54">
         <f>F9</f>
         <v>45072</v>
       </c>
-      <c r="F10" s="57">
+      <c r="F10" s="54">
         <v>45072</v>
       </c>
       <c r="G10" s="13"/>
@@ -2997,84 +2967,84 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="24"/>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="24"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="24"/>
-      <c r="AH10" s="24"/>
-      <c r="AI10" s="24"/>
-      <c r="AJ10" s="24"/>
-      <c r="AK10" s="24"/>
-      <c r="AL10" s="24"/>
-      <c r="AM10" s="24"/>
-      <c r="AN10" s="24"/>
-      <c r="AO10" s="24"/>
-      <c r="AP10" s="24"/>
-      <c r="AQ10" s="24"/>
-      <c r="AR10" s="24"/>
-      <c r="AS10" s="24"/>
-      <c r="AT10" s="24"/>
-      <c r="AU10" s="24"/>
-      <c r="AV10" s="24"/>
-      <c r="AW10" s="24"/>
-      <c r="AX10" s="24"/>
-      <c r="AY10" s="24"/>
-      <c r="AZ10" s="24"/>
-      <c r="BA10" s="24"/>
-      <c r="BB10" s="24"/>
-      <c r="BC10" s="24"/>
-      <c r="BD10" s="24"/>
-      <c r="BE10" s="24"/>
-      <c r="BF10" s="24"/>
-      <c r="BG10" s="24"/>
-      <c r="BH10" s="72"/>
-      <c r="BI10" s="69"/>
-      <c r="BJ10" s="24"/>
-      <c r="BK10" s="24"/>
-      <c r="BL10" s="67"/>
-      <c r="BM10" s="76"/>
-      <c r="BN10" s="76"/>
-      <c r="BO10" s="76"/>
-      <c r="BP10" s="76"/>
-      <c r="BQ10" s="76"/>
-      <c r="BR10" s="76"/>
-      <c r="BS10" s="76"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="21"/>
+      <c r="AK10" s="21"/>
+      <c r="AL10" s="21"/>
+      <c r="AM10" s="21"/>
+      <c r="AN10" s="21"/>
+      <c r="AO10" s="21"/>
+      <c r="AP10" s="21"/>
+      <c r="AQ10" s="21"/>
+      <c r="AR10" s="21"/>
+      <c r="AS10" s="21"/>
+      <c r="AT10" s="21"/>
+      <c r="AU10" s="21"/>
+      <c r="AV10" s="21"/>
+      <c r="AW10" s="21"/>
+      <c r="AX10" s="21"/>
+      <c r="AY10" s="21"/>
+      <c r="AZ10" s="21"/>
+      <c r="BA10" s="21"/>
+      <c r="BB10" s="21"/>
+      <c r="BC10" s="21"/>
+      <c r="BD10" s="21"/>
+      <c r="BE10" s="21"/>
+      <c r="BF10" s="21"/>
+      <c r="BG10" s="21"/>
+      <c r="BH10" s="67"/>
+      <c r="BI10" s="64"/>
+      <c r="BJ10" s="21"/>
+      <c r="BK10" s="21"/>
+      <c r="BL10" s="62"/>
+      <c r="BM10" s="71"/>
+      <c r="BN10" s="71"/>
+      <c r="BO10" s="71"/>
+      <c r="BP10" s="71"/>
+      <c r="BQ10" s="71"/>
+      <c r="BR10" s="71"/>
+      <c r="BS10" s="71"/>
     </row>
     <row r="11" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38"/>
-      <c r="B11" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="46"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="43"/>
       <c r="D11" s="16">
         <v>0.6</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="54">
         <f>F10</f>
         <v>45072</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="54">
         <v>45078</v>
       </c>
       <c r="G11" s="13"/>
@@ -3082,83 +3052,83 @@
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="24"/>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="24"/>
-      <c r="AD11" s="24"/>
-      <c r="AE11" s="24"/>
-      <c r="AF11" s="24"/>
-      <c r="AG11" s="70"/>
-      <c r="AH11" s="73"/>
-      <c r="AI11" s="24"/>
-      <c r="AJ11" s="24"/>
-      <c r="AK11" s="24"/>
-      <c r="AL11" s="24"/>
-      <c r="AM11" s="24"/>
-      <c r="AN11" s="24"/>
-      <c r="AO11" s="24"/>
-      <c r="AP11" s="24"/>
-      <c r="AQ11" s="24"/>
-      <c r="AR11" s="24"/>
-      <c r="AS11" s="24"/>
-      <c r="AT11" s="24"/>
-      <c r="AU11" s="24"/>
-      <c r="AV11" s="24"/>
-      <c r="AW11" s="24"/>
-      <c r="AX11" s="24"/>
-      <c r="AY11" s="75"/>
-      <c r="AZ11" s="24"/>
-      <c r="BA11" s="24"/>
-      <c r="BB11" s="24"/>
-      <c r="BC11" s="24"/>
-      <c r="BD11" s="24"/>
-      <c r="BE11" s="24"/>
-      <c r="BF11" s="24"/>
-      <c r="BG11" s="24"/>
-      <c r="BH11" s="24"/>
-      <c r="BI11" s="24"/>
-      <c r="BJ11" s="24"/>
-      <c r="BK11" s="24"/>
-      <c r="BL11" s="67"/>
-      <c r="BM11" s="76"/>
-      <c r="BN11" s="76"/>
-      <c r="BO11" s="76"/>
-      <c r="BP11" s="76"/>
-      <c r="BQ11" s="76"/>
-      <c r="BR11" s="76"/>
-      <c r="BS11" s="76"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="65"/>
+      <c r="AH11" s="68"/>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="21"/>
+      <c r="AK11" s="21"/>
+      <c r="AL11" s="21"/>
+      <c r="AM11" s="21"/>
+      <c r="AN11" s="21"/>
+      <c r="AO11" s="21"/>
+      <c r="AP11" s="21"/>
+      <c r="AQ11" s="21"/>
+      <c r="AR11" s="21"/>
+      <c r="AS11" s="21"/>
+      <c r="AT11" s="21"/>
+      <c r="AU11" s="21"/>
+      <c r="AV11" s="21"/>
+      <c r="AW11" s="21"/>
+      <c r="AX11" s="21"/>
+      <c r="AY11" s="70"/>
+      <c r="AZ11" s="21"/>
+      <c r="BA11" s="21"/>
+      <c r="BB11" s="21"/>
+      <c r="BC11" s="21"/>
+      <c r="BD11" s="21"/>
+      <c r="BE11" s="21"/>
+      <c r="BF11" s="21"/>
+      <c r="BG11" s="21"/>
+      <c r="BH11" s="21"/>
+      <c r="BI11" s="21"/>
+      <c r="BJ11" s="21"/>
+      <c r="BK11" s="21"/>
+      <c r="BL11" s="62"/>
+      <c r="BM11" s="71"/>
+      <c r="BN11" s="71"/>
+      <c r="BO11" s="71"/>
+      <c r="BP11" s="71"/>
+      <c r="BQ11" s="71"/>
+      <c r="BR11" s="71"/>
+      <c r="BS11" s="71"/>
     </row>
     <row r="12" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="38"/>
-      <c r="B12" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="46"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="43"/>
       <c r="D12" s="16">
         <v>0</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="54">
         <v>45079</v>
       </c>
-      <c r="F12" s="57">
+      <c r="F12" s="54">
         <v>45079</v>
       </c>
       <c r="G12" s="13"/>
@@ -3166,81 +3136,81 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="24"/>
-      <c r="AB12" s="24"/>
-      <c r="AC12" s="24"/>
-      <c r="AD12" s="24"/>
-      <c r="AE12" s="24"/>
-      <c r="AF12" s="24"/>
-      <c r="AG12" s="24"/>
-      <c r="AH12" s="24"/>
-      <c r="AI12" s="24"/>
-      <c r="AJ12" s="24"/>
-      <c r="AK12" s="24"/>
-      <c r="AL12" s="24"/>
-      <c r="AM12" s="24"/>
-      <c r="AN12" s="24"/>
-      <c r="AO12" s="24"/>
-      <c r="AP12" s="24"/>
-      <c r="AQ12" s="24"/>
-      <c r="AR12" s="24"/>
-      <c r="AS12" s="24"/>
-      <c r="AT12" s="24"/>
-      <c r="AU12" s="24"/>
-      <c r="AV12" s="24"/>
-      <c r="AW12" s="24"/>
-      <c r="AX12" s="24"/>
-      <c r="AY12" s="74"/>
-      <c r="AZ12" s="24"/>
-      <c r="BA12" s="24"/>
-      <c r="BB12" s="24"/>
-      <c r="BC12" s="24"/>
-      <c r="BD12" s="24"/>
-      <c r="BE12" s="24"/>
-      <c r="BF12" s="24"/>
-      <c r="BG12" s="24"/>
-      <c r="BH12" s="24"/>
-      <c r="BI12" s="24"/>
-      <c r="BJ12" s="24"/>
-      <c r="BK12" s="24"/>
-      <c r="BL12" s="67"/>
-      <c r="BM12" s="76"/>
-      <c r="BN12" s="76"/>
-      <c r="BO12" s="76"/>
-      <c r="BP12" s="76"/>
-      <c r="BQ12" s="76"/>
-      <c r="BR12" s="76"/>
-      <c r="BS12" s="76"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="21"/>
+      <c r="AM12" s="21"/>
+      <c r="AN12" s="21"/>
+      <c r="AO12" s="21"/>
+      <c r="AP12" s="21"/>
+      <c r="AQ12" s="21"/>
+      <c r="AR12" s="21"/>
+      <c r="AS12" s="21"/>
+      <c r="AT12" s="21"/>
+      <c r="AU12" s="21"/>
+      <c r="AV12" s="21"/>
+      <c r="AW12" s="21"/>
+      <c r="AX12" s="21"/>
+      <c r="AY12" s="69"/>
+      <c r="AZ12" s="21"/>
+      <c r="BA12" s="21"/>
+      <c r="BB12" s="21"/>
+      <c r="BC12" s="21"/>
+      <c r="BD12" s="21"/>
+      <c r="BE12" s="21"/>
+      <c r="BF12" s="21"/>
+      <c r="BG12" s="21"/>
+      <c r="BH12" s="21"/>
+      <c r="BI12" s="21"/>
+      <c r="BJ12" s="21"/>
+      <c r="BK12" s="21"/>
+      <c r="BL12" s="62"/>
+      <c r="BM12" s="71"/>
+      <c r="BN12" s="71"/>
+      <c r="BO12" s="71"/>
+      <c r="BP12" s="71"/>
+      <c r="BQ12" s="71"/>
+      <c r="BR12" s="71"/>
+      <c r="BS12" s="71"/>
     </row>
     <row r="13" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="38"/>
-      <c r="B13" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="46"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="43"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="57">
+      <c r="E13" s="54">
         <v>45080</v>
       </c>
-      <c r="F13" s="57">
+      <c r="F13" s="54">
         <v>45086</v>
       </c>
       <c r="G13" s="13"/>
@@ -3248,163 +3218,163 @@
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="24"/>
-      <c r="AH13" s="24"/>
-      <c r="AI13" s="24"/>
-      <c r="AJ13" s="24"/>
-      <c r="AK13" s="24"/>
-      <c r="AL13" s="24"/>
-      <c r="AM13" s="24"/>
-      <c r="AN13" s="24"/>
-      <c r="AO13" s="24"/>
-      <c r="AP13" s="24"/>
-      <c r="AQ13" s="24"/>
-      <c r="AR13" s="24"/>
-      <c r="AS13" s="24"/>
-      <c r="AT13" s="24"/>
-      <c r="AU13" s="24"/>
-      <c r="AV13" s="24"/>
-      <c r="AW13" s="24"/>
-      <c r="AX13" s="24"/>
-      <c r="AY13" s="24"/>
-      <c r="AZ13" s="24"/>
-      <c r="BA13" s="24"/>
-      <c r="BB13" s="24"/>
-      <c r="BC13" s="24"/>
-      <c r="BD13" s="24"/>
-      <c r="BE13" s="24"/>
-      <c r="BF13" s="24"/>
-      <c r="BG13" s="24"/>
-      <c r="BH13" s="24"/>
-      <c r="BI13" s="24"/>
-      <c r="BJ13" s="24"/>
-      <c r="BK13" s="24"/>
-      <c r="BL13" s="67"/>
-      <c r="BM13" s="76"/>
-      <c r="BN13" s="76"/>
-      <c r="BO13" s="76"/>
-      <c r="BP13" s="76"/>
-      <c r="BQ13" s="76"/>
-      <c r="BR13" s="76"/>
-      <c r="BS13" s="76"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="21"/>
+      <c r="AJ13" s="21"/>
+      <c r="AK13" s="21"/>
+      <c r="AL13" s="21"/>
+      <c r="AM13" s="21"/>
+      <c r="AN13" s="21"/>
+      <c r="AO13" s="21"/>
+      <c r="AP13" s="21"/>
+      <c r="AQ13" s="21"/>
+      <c r="AR13" s="21"/>
+      <c r="AS13" s="21"/>
+      <c r="AT13" s="21"/>
+      <c r="AU13" s="21"/>
+      <c r="AV13" s="21"/>
+      <c r="AW13" s="21"/>
+      <c r="AX13" s="21"/>
+      <c r="AY13" s="21"/>
+      <c r="AZ13" s="21"/>
+      <c r="BA13" s="21"/>
+      <c r="BB13" s="21"/>
+      <c r="BC13" s="21"/>
+      <c r="BD13" s="21"/>
+      <c r="BE13" s="21"/>
+      <c r="BF13" s="21"/>
+      <c r="BG13" s="21"/>
+      <c r="BH13" s="21"/>
+      <c r="BI13" s="21"/>
+      <c r="BJ13" s="21"/>
+      <c r="BK13" s="21"/>
+      <c r="BL13" s="62"/>
+      <c r="BM13" s="71"/>
+      <c r="BN13" s="71"/>
+      <c r="BO13" s="71"/>
+      <c r="BP13" s="71"/>
+      <c r="BQ13" s="71"/>
+      <c r="BR13" s="71"/>
+      <c r="BS13" s="71"/>
     </row>
     <row r="14" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="36" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="47"/>
+        <v>37</v>
+      </c>
+      <c r="C14" s="44"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="59"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="56"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="24"/>
-      <c r="AB14" s="24"/>
-      <c r="AC14" s="24"/>
-      <c r="AD14" s="24"/>
-      <c r="AE14" s="24"/>
-      <c r="AF14" s="24"/>
-      <c r="AG14" s="24"/>
-      <c r="AH14" s="24"/>
-      <c r="AI14" s="24"/>
-      <c r="AJ14" s="24"/>
-      <c r="AK14" s="24"/>
-      <c r="AL14" s="24"/>
-      <c r="AM14" s="24"/>
-      <c r="AN14" s="24"/>
-      <c r="AO14" s="24"/>
-      <c r="AP14" s="24"/>
-      <c r="AQ14" s="24"/>
-      <c r="AR14" s="24"/>
-      <c r="AS14" s="24"/>
-      <c r="AT14" s="24"/>
-      <c r="AU14" s="24"/>
-      <c r="AV14" s="24"/>
-      <c r="AW14" s="24"/>
-      <c r="AX14" s="24"/>
-      <c r="AY14" s="24"/>
-      <c r="AZ14" s="24"/>
-      <c r="BA14" s="24"/>
-      <c r="BB14" s="24"/>
-      <c r="BC14" s="24"/>
-      <c r="BD14" s="24"/>
-      <c r="BE14" s="24"/>
-      <c r="BF14" s="24"/>
-      <c r="BG14" s="24"/>
-      <c r="BH14" s="24"/>
-      <c r="BI14" s="24"/>
-      <c r="BJ14" s="24"/>
-      <c r="BK14" s="24"/>
-      <c r="BL14" s="67"/>
-      <c r="BM14" s="76"/>
-      <c r="BN14" s="76"/>
-      <c r="BO14" s="76"/>
-      <c r="BP14" s="76"/>
-      <c r="BQ14" s="76"/>
-      <c r="BR14" s="76"/>
-      <c r="BS14" s="76"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="21"/>
+      <c r="AJ14" s="21"/>
+      <c r="AK14" s="21"/>
+      <c r="AL14" s="21"/>
+      <c r="AM14" s="21"/>
+      <c r="AN14" s="21"/>
+      <c r="AO14" s="21"/>
+      <c r="AP14" s="21"/>
+      <c r="AQ14" s="21"/>
+      <c r="AR14" s="21"/>
+      <c r="AS14" s="21"/>
+      <c r="AT14" s="21"/>
+      <c r="AU14" s="21"/>
+      <c r="AV14" s="21"/>
+      <c r="AW14" s="21"/>
+      <c r="AX14" s="21"/>
+      <c r="AY14" s="21"/>
+      <c r="AZ14" s="21"/>
+      <c r="BA14" s="21"/>
+      <c r="BB14" s="21"/>
+      <c r="BC14" s="21"/>
+      <c r="BD14" s="21"/>
+      <c r="BE14" s="21"/>
+      <c r="BF14" s="21"/>
+      <c r="BG14" s="21"/>
+      <c r="BH14" s="21"/>
+      <c r="BI14" s="21"/>
+      <c r="BJ14" s="21"/>
+      <c r="BK14" s="21"/>
+      <c r="BL14" s="62"/>
+      <c r="BM14" s="71"/>
+      <c r="BN14" s="71"/>
+      <c r="BO14" s="71"/>
+      <c r="BP14" s="71"/>
+      <c r="BQ14" s="71"/>
+      <c r="BR14" s="71"/>
+      <c r="BS14" s="71"/>
     </row>
     <row r="15" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="39"/>
-      <c r="B15" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="48"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="45"/>
       <c r="D15" s="19">
         <v>0</v>
       </c>
-      <c r="E15" s="60">
+      <c r="E15" s="57">
         <v>45080</v>
       </c>
-      <c r="F15" s="60">
+      <c r="F15" s="57">
         <v>45086</v>
       </c>
       <c r="G15" s="13"/>
@@ -3412,83 +3382,83 @@
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="24"/>
-      <c r="AF15" s="24"/>
-      <c r="AG15" s="24"/>
-      <c r="AH15" s="24"/>
-      <c r="AI15" s="24"/>
-      <c r="AJ15" s="24"/>
-      <c r="AK15" s="24"/>
-      <c r="AL15" s="24"/>
-      <c r="AM15" s="24"/>
-      <c r="AN15" s="24"/>
-      <c r="AO15" s="24"/>
-      <c r="AP15" s="24"/>
-      <c r="AQ15" s="24"/>
-      <c r="AR15" s="24"/>
-      <c r="AS15" s="24"/>
-      <c r="AT15" s="24"/>
-      <c r="AU15" s="24"/>
-      <c r="AV15" s="24"/>
-      <c r="AW15" s="24"/>
-      <c r="AX15" s="24"/>
-      <c r="AY15" s="24"/>
-      <c r="AZ15" s="24"/>
-      <c r="BA15" s="24"/>
-      <c r="BB15" s="24"/>
-      <c r="BC15" s="24"/>
-      <c r="BD15" s="24"/>
-      <c r="BE15" s="24"/>
-      <c r="BF15" s="24"/>
-      <c r="BG15" s="24"/>
-      <c r="BH15" s="24"/>
-      <c r="BI15" s="24"/>
-      <c r="BJ15" s="24"/>
-      <c r="BK15" s="24"/>
-      <c r="BL15" s="67"/>
-      <c r="BM15" s="76"/>
-      <c r="BN15" s="76"/>
-      <c r="BO15" s="76"/>
-      <c r="BP15" s="76"/>
-      <c r="BQ15" s="76"/>
-      <c r="BR15" s="76"/>
-      <c r="BS15" s="76"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="21"/>
+      <c r="AK15" s="21"/>
+      <c r="AL15" s="21"/>
+      <c r="AM15" s="21"/>
+      <c r="AN15" s="21"/>
+      <c r="AO15" s="21"/>
+      <c r="AP15" s="21"/>
+      <c r="AQ15" s="21"/>
+      <c r="AR15" s="21"/>
+      <c r="AS15" s="21"/>
+      <c r="AT15" s="21"/>
+      <c r="AU15" s="21"/>
+      <c r="AV15" s="21"/>
+      <c r="AW15" s="21"/>
+      <c r="AX15" s="21"/>
+      <c r="AY15" s="21"/>
+      <c r="AZ15" s="21"/>
+      <c r="BA15" s="21"/>
+      <c r="BB15" s="21"/>
+      <c r="BC15" s="21"/>
+      <c r="BD15" s="21"/>
+      <c r="BE15" s="21"/>
+      <c r="BF15" s="21"/>
+      <c r="BG15" s="21"/>
+      <c r="BH15" s="21"/>
+      <c r="BI15" s="21"/>
+      <c r="BJ15" s="21"/>
+      <c r="BK15" s="21"/>
+      <c r="BL15" s="62"/>
+      <c r="BM15" s="71"/>
+      <c r="BN15" s="71"/>
+      <c r="BO15" s="71"/>
+      <c r="BP15" s="71"/>
+      <c r="BQ15" s="71"/>
+      <c r="BR15" s="71"/>
+      <c r="BS15" s="71"/>
     </row>
     <row r="16" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="38"/>
-      <c r="B16" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="48"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="45"/>
       <c r="D16" s="19">
         <v>0</v>
       </c>
-      <c r="E16" s="60">
+      <c r="E16" s="57">
         <v>45082</v>
       </c>
-      <c r="F16" s="60">
+      <c r="F16" s="57">
         <v>45082</v>
       </c>
       <c r="G16" s="13"/>
@@ -3496,83 +3466,83 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="24"/>
-      <c r="AB16" s="24"/>
-      <c r="AC16" s="24"/>
-      <c r="AD16" s="24"/>
-      <c r="AE16" s="24"/>
-      <c r="AF16" s="24"/>
-      <c r="AG16" s="24"/>
-      <c r="AH16" s="24"/>
-      <c r="AI16" s="24"/>
-      <c r="AJ16" s="24"/>
-      <c r="AK16" s="24"/>
-      <c r="AL16" s="24"/>
-      <c r="AM16" s="24"/>
-      <c r="AN16" s="24"/>
-      <c r="AO16" s="24"/>
-      <c r="AP16" s="24"/>
-      <c r="AQ16" s="24"/>
-      <c r="AR16" s="24"/>
-      <c r="AS16" s="24"/>
-      <c r="AT16" s="24"/>
-      <c r="AU16" s="24"/>
-      <c r="AV16" s="24"/>
-      <c r="AW16" s="24"/>
-      <c r="AX16" s="24"/>
-      <c r="AY16" s="24"/>
-      <c r="AZ16" s="24"/>
-      <c r="BA16" s="24"/>
-      <c r="BB16" s="24"/>
-      <c r="BC16" s="24"/>
-      <c r="BD16" s="24"/>
-      <c r="BE16" s="24"/>
-      <c r="BF16" s="24"/>
-      <c r="BG16" s="24"/>
-      <c r="BH16" s="24"/>
-      <c r="BI16" s="24"/>
-      <c r="BJ16" s="24"/>
-      <c r="BK16" s="24"/>
-      <c r="BL16" s="67"/>
-      <c r="BM16" s="76"/>
-      <c r="BN16" s="76"/>
-      <c r="BO16" s="76"/>
-      <c r="BP16" s="76"/>
-      <c r="BQ16" s="76"/>
-      <c r="BR16" s="76"/>
-      <c r="BS16" s="76"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="21"/>
+      <c r="AJ16" s="21"/>
+      <c r="AK16" s="21"/>
+      <c r="AL16" s="21"/>
+      <c r="AM16" s="21"/>
+      <c r="AN16" s="21"/>
+      <c r="AO16" s="21"/>
+      <c r="AP16" s="21"/>
+      <c r="AQ16" s="21"/>
+      <c r="AR16" s="21"/>
+      <c r="AS16" s="21"/>
+      <c r="AT16" s="21"/>
+      <c r="AU16" s="21"/>
+      <c r="AV16" s="21"/>
+      <c r="AW16" s="21"/>
+      <c r="AX16" s="21"/>
+      <c r="AY16" s="21"/>
+      <c r="AZ16" s="21"/>
+      <c r="BA16" s="21"/>
+      <c r="BB16" s="21"/>
+      <c r="BC16" s="21"/>
+      <c r="BD16" s="21"/>
+      <c r="BE16" s="21"/>
+      <c r="BF16" s="21"/>
+      <c r="BG16" s="21"/>
+      <c r="BH16" s="21"/>
+      <c r="BI16" s="21"/>
+      <c r="BJ16" s="21"/>
+      <c r="BK16" s="21"/>
+      <c r="BL16" s="62"/>
+      <c r="BM16" s="71"/>
+      <c r="BN16" s="71"/>
+      <c r="BO16" s="71"/>
+      <c r="BP16" s="71"/>
+      <c r="BQ16" s="71"/>
+      <c r="BR16" s="71"/>
+      <c r="BS16" s="71"/>
     </row>
     <row r="17" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="38"/>
-      <c r="B17" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="48"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="45"/>
       <c r="D17" s="19">
         <v>0</v>
       </c>
-      <c r="E17" s="60">
+      <c r="E17" s="57">
         <v>45083</v>
       </c>
-      <c r="F17" s="60">
+      <c r="F17" s="57">
         <v>45088</v>
       </c>
       <c r="G17" s="13"/>
@@ -3580,916 +3550,922 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="24"/>
-      <c r="AH17" s="24"/>
-      <c r="AI17" s="24"/>
-      <c r="AJ17" s="24"/>
-      <c r="AK17" s="24"/>
-      <c r="AL17" s="24"/>
-      <c r="AM17" s="24"/>
-      <c r="AN17" s="24"/>
-      <c r="AO17" s="24"/>
-      <c r="AP17" s="24"/>
-      <c r="AQ17" s="24"/>
-      <c r="AR17" s="24"/>
-      <c r="AS17" s="24"/>
-      <c r="AT17" s="24"/>
-      <c r="AU17" s="24"/>
-      <c r="AV17" s="24"/>
-      <c r="AW17" s="24"/>
-      <c r="AX17" s="24"/>
-      <c r="AY17" s="24"/>
-      <c r="AZ17" s="24"/>
-      <c r="BA17" s="24"/>
-      <c r="BB17" s="24"/>
-      <c r="BC17" s="24"/>
-      <c r="BD17" s="24"/>
-      <c r="BE17" s="24"/>
-      <c r="BF17" s="24"/>
-      <c r="BG17" s="24"/>
-      <c r="BH17" s="24"/>
-      <c r="BI17" s="24"/>
-      <c r="BJ17" s="24"/>
-      <c r="BK17" s="24"/>
-      <c r="BL17" s="67"/>
-      <c r="BM17" s="76"/>
-      <c r="BN17" s="76"/>
-      <c r="BO17" s="76"/>
-      <c r="BP17" s="76"/>
-      <c r="BQ17" s="76"/>
-      <c r="BR17" s="76"/>
-      <c r="BS17" s="76"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="21"/>
+      <c r="AK17" s="21"/>
+      <c r="AL17" s="21"/>
+      <c r="AM17" s="21"/>
+      <c r="AN17" s="21"/>
+      <c r="AO17" s="21"/>
+      <c r="AP17" s="21"/>
+      <c r="AQ17" s="21"/>
+      <c r="AR17" s="21"/>
+      <c r="AS17" s="21"/>
+      <c r="AT17" s="21"/>
+      <c r="AU17" s="21"/>
+      <c r="AV17" s="21"/>
+      <c r="AW17" s="21"/>
+      <c r="AX17" s="21"/>
+      <c r="AY17" s="21"/>
+      <c r="AZ17" s="21"/>
+      <c r="BA17" s="21"/>
+      <c r="BB17" s="21"/>
+      <c r="BC17" s="21"/>
+      <c r="BD17" s="21"/>
+      <c r="BE17" s="21"/>
+      <c r="BF17" s="21"/>
+      <c r="BG17" s="21"/>
+      <c r="BH17" s="21"/>
+      <c r="BI17" s="21"/>
+      <c r="BJ17" s="21"/>
+      <c r="BK17" s="21"/>
+      <c r="BL17" s="62"/>
+      <c r="BM17" s="71"/>
+      <c r="BN17" s="71"/>
+      <c r="BO17" s="71"/>
+      <c r="BP17" s="71"/>
+      <c r="BQ17" s="71"/>
+      <c r="BR17" s="71"/>
+      <c r="BS17" s="71"/>
     </row>
     <row r="18" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="38"/>
-      <c r="B18" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="48"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="45"/>
       <c r="D18" s="19">
         <v>0</v>
       </c>
-      <c r="E18" s="60">
+      <c r="E18" s="57">
+        <v>45087</v>
+      </c>
+      <c r="F18" s="57">
         <v>45088</v>
-      </c>
-      <c r="F18" s="60">
-        <v>45090</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13">
         <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="24"/>
-      <c r="AD18" s="24"/>
-      <c r="AE18" s="24"/>
-      <c r="AF18" s="24"/>
-      <c r="AG18" s="24"/>
-      <c r="AH18" s="24"/>
-      <c r="AI18" s="24"/>
-      <c r="AJ18" s="24"/>
-      <c r="AK18" s="24"/>
-      <c r="AL18" s="24"/>
-      <c r="AM18" s="24"/>
-      <c r="AN18" s="24"/>
-      <c r="AO18" s="24"/>
-      <c r="AP18" s="24"/>
-      <c r="AQ18" s="24"/>
-      <c r="AR18" s="24"/>
-      <c r="AS18" s="24"/>
-      <c r="AT18" s="24"/>
-      <c r="AU18" s="24"/>
-      <c r="AV18" s="24"/>
-      <c r="AW18" s="24"/>
-      <c r="AX18" s="24"/>
-      <c r="AY18" s="24"/>
-      <c r="AZ18" s="24"/>
-      <c r="BA18" s="24"/>
-      <c r="BB18" s="24"/>
-      <c r="BC18" s="24"/>
-      <c r="BD18" s="24"/>
-      <c r="BE18" s="24"/>
-      <c r="BF18" s="24"/>
-      <c r="BG18" s="24"/>
-      <c r="BH18" s="24"/>
-      <c r="BI18" s="24"/>
-      <c r="BJ18" s="24"/>
-      <c r="BK18" s="24"/>
-      <c r="BL18" s="67"/>
-      <c r="BM18" s="76"/>
-      <c r="BN18" s="76"/>
-      <c r="BO18" s="76"/>
-      <c r="BP18" s="76"/>
-      <c r="BQ18" s="76"/>
-      <c r="BR18" s="76"/>
-      <c r="BS18" s="76"/>
+        <v>2</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="21"/>
+      <c r="AD18" s="21"/>
+      <c r="AE18" s="21"/>
+      <c r="AF18" s="21"/>
+      <c r="AG18" s="21"/>
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="21"/>
+      <c r="AJ18" s="21"/>
+      <c r="AK18" s="21"/>
+      <c r="AL18" s="21"/>
+      <c r="AM18" s="21"/>
+      <c r="AN18" s="21"/>
+      <c r="AO18" s="21"/>
+      <c r="AP18" s="21"/>
+      <c r="AQ18" s="21"/>
+      <c r="AR18" s="21"/>
+      <c r="AS18" s="21"/>
+      <c r="AT18" s="21"/>
+      <c r="AU18" s="21"/>
+      <c r="AV18" s="21"/>
+      <c r="AW18" s="21"/>
+      <c r="AX18" s="21"/>
+      <c r="AY18" s="21"/>
+      <c r="AZ18" s="21"/>
+      <c r="BA18" s="21"/>
+      <c r="BB18" s="21"/>
+      <c r="BC18" s="21"/>
+      <c r="BD18" s="21"/>
+      <c r="BE18" s="21"/>
+      <c r="BF18" s="21"/>
+      <c r="BG18" s="21"/>
+      <c r="BH18" s="21"/>
+      <c r="BI18" s="21"/>
+      <c r="BJ18" s="21"/>
+      <c r="BK18" s="21"/>
+      <c r="BL18" s="62"/>
+      <c r="BM18" s="71"/>
+      <c r="BN18" s="71"/>
+      <c r="BO18" s="71"/>
+      <c r="BP18" s="71"/>
+      <c r="BQ18" s="71"/>
+      <c r="BR18" s="71"/>
+      <c r="BS18" s="71"/>
     </row>
     <row r="19" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="38"/>
-      <c r="B19" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="48"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="45"/>
       <c r="D19" s="19">
         <v>0</v>
       </c>
-      <c r="E19" s="60">
-        <v>45091</v>
-      </c>
-      <c r="F19" s="60">
-        <v>45091</v>
+      <c r="E19" s="57">
+        <v>45088</v>
+      </c>
+      <c r="F19" s="57">
+        <v>45090</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="24"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="24"/>
-      <c r="AD19" s="24"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="24"/>
-      <c r="AH19" s="24"/>
-      <c r="AI19" s="24"/>
-      <c r="AJ19" s="24"/>
-      <c r="AK19" s="24"/>
-      <c r="AL19" s="24"/>
-      <c r="AM19" s="24"/>
-      <c r="AN19" s="24"/>
-      <c r="AO19" s="24"/>
-      <c r="AP19" s="24"/>
-      <c r="AQ19" s="24"/>
-      <c r="AR19" s="24"/>
-      <c r="AS19" s="24"/>
-      <c r="AT19" s="24"/>
-      <c r="AU19" s="24"/>
-      <c r="AV19" s="24"/>
-      <c r="AW19" s="24"/>
-      <c r="AX19" s="24"/>
-      <c r="AY19" s="24"/>
-      <c r="AZ19" s="24"/>
-      <c r="BA19" s="24"/>
-      <c r="BB19" s="24"/>
-      <c r="BC19" s="24"/>
-      <c r="BD19" s="24"/>
-      <c r="BE19" s="24"/>
-      <c r="BF19" s="24"/>
-      <c r="BG19" s="24"/>
-      <c r="BH19" s="24"/>
-      <c r="BI19" s="24"/>
-      <c r="BJ19" s="24"/>
-      <c r="BK19" s="24"/>
-      <c r="BL19" s="67"/>
-      <c r="BM19" s="76"/>
-      <c r="BN19" s="76"/>
-      <c r="BO19" s="76"/>
-      <c r="BP19" s="76"/>
-      <c r="BQ19" s="76"/>
-      <c r="BR19" s="76"/>
-      <c r="BS19" s="76"/>
+        <v>3</v>
+      </c>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="21"/>
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="21"/>
+      <c r="AF19" s="21"/>
+      <c r="AG19" s="21"/>
+      <c r="AH19" s="21"/>
+      <c r="AI19" s="21"/>
+      <c r="AJ19" s="21"/>
+      <c r="AK19" s="21"/>
+      <c r="AL19" s="21"/>
+      <c r="AM19" s="21"/>
+      <c r="AN19" s="21"/>
+      <c r="AO19" s="21"/>
+      <c r="AP19" s="21"/>
+      <c r="AQ19" s="21"/>
+      <c r="AR19" s="21"/>
+      <c r="AS19" s="21"/>
+      <c r="AT19" s="21"/>
+      <c r="AU19" s="21"/>
+      <c r="AV19" s="21"/>
+      <c r="AW19" s="21"/>
+      <c r="AX19" s="21"/>
+      <c r="AY19" s="21"/>
+      <c r="AZ19" s="21"/>
+      <c r="BA19" s="21"/>
+      <c r="BB19" s="21"/>
+      <c r="BC19" s="21"/>
+      <c r="BD19" s="21"/>
+      <c r="BE19" s="21"/>
+      <c r="BF19" s="21"/>
+      <c r="BG19" s="21"/>
+      <c r="BH19" s="21"/>
+      <c r="BI19" s="21"/>
+      <c r="BJ19" s="21"/>
+      <c r="BK19" s="21"/>
+      <c r="BL19" s="62"/>
+      <c r="BM19" s="71"/>
+      <c r="BN19" s="71"/>
+      <c r="BO19" s="71"/>
+      <c r="BP19" s="71"/>
+      <c r="BQ19" s="71"/>
+      <c r="BR19" s="71"/>
+      <c r="BS19" s="71"/>
     </row>
     <row r="20" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="48"/>
+      <c r="B20" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="45"/>
       <c r="D20" s="19">
         <v>0</v>
       </c>
-      <c r="E20" s="60">
-        <v>45092</v>
-      </c>
-      <c r="F20" s="60">
-        <v>45092</v>
+      <c r="E20" s="57">
+        <v>45091</v>
+      </c>
+      <c r="F20" s="57">
+        <v>45091</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="24"/>
-      <c r="AB20" s="24"/>
-      <c r="AC20" s="24"/>
-      <c r="AD20" s="24"/>
-      <c r="AE20" s="24"/>
-      <c r="AF20" s="24"/>
-      <c r="AG20" s="24"/>
-      <c r="AH20" s="24"/>
-      <c r="AI20" s="24"/>
-      <c r="AJ20" s="24"/>
-      <c r="AK20" s="24"/>
-      <c r="AL20" s="24"/>
-      <c r="AM20" s="24"/>
-      <c r="AN20" s="24"/>
-      <c r="AO20" s="24"/>
-      <c r="AP20" s="24"/>
-      <c r="AQ20" s="24"/>
-      <c r="AR20" s="24"/>
-      <c r="AS20" s="24"/>
-      <c r="AT20" s="24"/>
-      <c r="AU20" s="24"/>
-      <c r="AV20" s="24"/>
-      <c r="AW20" s="24"/>
-      <c r="AX20" s="24"/>
-      <c r="AY20" s="24"/>
-      <c r="AZ20" s="24"/>
-      <c r="BA20" s="24"/>
-      <c r="BB20" s="24"/>
-      <c r="BC20" s="24"/>
-      <c r="BD20" s="24"/>
-      <c r="BE20" s="24"/>
-      <c r="BF20" s="24"/>
-      <c r="BG20" s="24"/>
-      <c r="BH20" s="24"/>
-      <c r="BI20" s="24"/>
-      <c r="BJ20" s="24"/>
-      <c r="BK20" s="24"/>
-      <c r="BL20" s="67"/>
-      <c r="BM20" s="76"/>
-      <c r="BN20" s="76"/>
-      <c r="BO20" s="76"/>
-      <c r="BP20" s="76"/>
-      <c r="BQ20" s="76"/>
-      <c r="BR20" s="76"/>
-      <c r="BS20" s="76"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="21"/>
+      <c r="AE20" s="21"/>
+      <c r="AF20" s="21"/>
+      <c r="AG20" s="21"/>
+      <c r="AH20" s="21"/>
+      <c r="AI20" s="21"/>
+      <c r="AJ20" s="21"/>
+      <c r="AK20" s="21"/>
+      <c r="AL20" s="21"/>
+      <c r="AM20" s="21"/>
+      <c r="AN20" s="21"/>
+      <c r="AO20" s="21"/>
+      <c r="AP20" s="21"/>
+      <c r="AQ20" s="21"/>
+      <c r="AR20" s="21"/>
+      <c r="AS20" s="21"/>
+      <c r="AT20" s="21"/>
+      <c r="AU20" s="21"/>
+      <c r="AV20" s="21"/>
+      <c r="AW20" s="21"/>
+      <c r="AX20" s="21"/>
+      <c r="AY20" s="21"/>
+      <c r="AZ20" s="21"/>
+      <c r="BA20" s="21"/>
+      <c r="BB20" s="21"/>
+      <c r="BC20" s="21"/>
+      <c r="BD20" s="21"/>
+      <c r="BE20" s="21"/>
+      <c r="BF20" s="21"/>
+      <c r="BG20" s="21"/>
+      <c r="BH20" s="21"/>
+      <c r="BI20" s="21"/>
+      <c r="BJ20" s="21"/>
+      <c r="BK20" s="21"/>
+      <c r="BL20" s="62"/>
+      <c r="BM20" s="71"/>
+      <c r="BN20" s="71"/>
+      <c r="BO20" s="71"/>
+      <c r="BP20" s="71"/>
+      <c r="BQ20" s="71"/>
+      <c r="BR20" s="71"/>
+      <c r="BS20" s="71"/>
     </row>
     <row r="21" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="38"/>
-      <c r="B21" s="50" t="s">
+      <c r="A21" s="35"/>
+      <c r="B21" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="48"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="19">
         <v>0</v>
       </c>
-      <c r="E21" s="60">
-        <v>45091</v>
-      </c>
-      <c r="F21" s="60">
-        <v>45091</v>
+      <c r="E21" s="57">
+        <v>45092</v>
+      </c>
+      <c r="F21" s="57">
+        <v>45092</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="24"/>
-      <c r="AB21" s="24"/>
-      <c r="AC21" s="24"/>
-      <c r="AD21" s="24"/>
-      <c r="AE21" s="24"/>
-      <c r="AF21" s="24"/>
-      <c r="AG21" s="24"/>
-      <c r="AH21" s="24"/>
-      <c r="AI21" s="24"/>
-      <c r="AJ21" s="24"/>
-      <c r="AK21" s="24"/>
-      <c r="AL21" s="24"/>
-      <c r="AM21" s="24"/>
-      <c r="AN21" s="24"/>
-      <c r="AO21" s="24"/>
-      <c r="AP21" s="24"/>
-      <c r="AQ21" s="24"/>
-      <c r="AR21" s="24"/>
-      <c r="AS21" s="24"/>
-      <c r="AT21" s="24"/>
-      <c r="AU21" s="24"/>
-      <c r="AV21" s="24"/>
-      <c r="AW21" s="24"/>
-      <c r="AX21" s="24"/>
-      <c r="AY21" s="24"/>
-      <c r="AZ21" s="24"/>
-      <c r="BA21" s="24"/>
-      <c r="BB21" s="24"/>
-      <c r="BC21" s="24"/>
-      <c r="BD21" s="24"/>
-      <c r="BE21" s="24"/>
-      <c r="BF21" s="24"/>
-      <c r="BG21" s="24"/>
-      <c r="BH21" s="24"/>
-      <c r="BI21" s="24"/>
-      <c r="BJ21" s="24"/>
-      <c r="BK21" s="24"/>
-      <c r="BL21" s="67"/>
-      <c r="BM21" s="76"/>
-      <c r="BN21" s="76"/>
-      <c r="BO21" s="76"/>
-      <c r="BP21" s="76"/>
-      <c r="BQ21" s="76"/>
-      <c r="BR21" s="76"/>
-      <c r="BS21" s="76"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="21"/>
+      <c r="AF21" s="21"/>
+      <c r="AG21" s="21"/>
+      <c r="AH21" s="21"/>
+      <c r="AI21" s="21"/>
+      <c r="AJ21" s="21"/>
+      <c r="AK21" s="21"/>
+      <c r="AL21" s="21"/>
+      <c r="AM21" s="21"/>
+      <c r="AN21" s="21"/>
+      <c r="AO21" s="21"/>
+      <c r="AP21" s="21"/>
+      <c r="AQ21" s="21"/>
+      <c r="AR21" s="21"/>
+      <c r="AS21" s="21"/>
+      <c r="AT21" s="21"/>
+      <c r="AU21" s="21"/>
+      <c r="AV21" s="21"/>
+      <c r="AW21" s="21"/>
+      <c r="AX21" s="21"/>
+      <c r="AY21" s="21"/>
+      <c r="AZ21" s="21"/>
+      <c r="BA21" s="21"/>
+      <c r="BB21" s="21"/>
+      <c r="BC21" s="21"/>
+      <c r="BD21" s="21"/>
+      <c r="BE21" s="21"/>
+      <c r="BF21" s="21"/>
+      <c r="BG21" s="21"/>
+      <c r="BH21" s="21"/>
+      <c r="BI21" s="21"/>
+      <c r="BJ21" s="21"/>
+      <c r="BK21" s="21"/>
+      <c r="BL21" s="62"/>
+      <c r="BM21" s="71"/>
+      <c r="BN21" s="71"/>
+      <c r="BO21" s="71"/>
+      <c r="BP21" s="71"/>
+      <c r="BQ21" s="71"/>
+      <c r="BR21" s="71"/>
+      <c r="BS21" s="71"/>
     </row>
     <row r="22" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="38"/>
-      <c r="B22" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="48"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="45"/>
       <c r="D22" s="19">
         <v>0</v>
       </c>
-      <c r="E22" s="60">
-        <v>45093</v>
-      </c>
-      <c r="F22" s="60">
-        <v>45095</v>
+      <c r="E22" s="57">
+        <v>45091</v>
+      </c>
+      <c r="F22" s="57">
+        <v>45091</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="13">
         <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="24"/>
-      <c r="AB22" s="24"/>
-      <c r="AC22" s="24"/>
-      <c r="AD22" s="24"/>
-      <c r="AE22" s="24"/>
-      <c r="AF22" s="24"/>
-      <c r="AG22" s="24"/>
-      <c r="AH22" s="24"/>
-      <c r="AI22" s="24"/>
-      <c r="AJ22" s="24"/>
-      <c r="AK22" s="24"/>
-      <c r="AL22" s="24"/>
-      <c r="AM22" s="24"/>
-      <c r="AN22" s="24"/>
-      <c r="AO22" s="24"/>
-      <c r="AP22" s="24"/>
-      <c r="AQ22" s="24"/>
-      <c r="AR22" s="24"/>
-      <c r="AS22" s="24"/>
-      <c r="AT22" s="24"/>
-      <c r="AU22" s="24"/>
-      <c r="AV22" s="24"/>
-      <c r="AW22" s="24"/>
-      <c r="AX22" s="24"/>
-      <c r="AY22" s="24"/>
-      <c r="AZ22" s="24"/>
-      <c r="BA22" s="24"/>
-      <c r="BB22" s="24"/>
-      <c r="BC22" s="24"/>
-      <c r="BD22" s="24"/>
-      <c r="BE22" s="24"/>
-      <c r="BF22" s="24"/>
-      <c r="BG22" s="24"/>
-      <c r="BH22" s="24"/>
-      <c r="BI22" s="24"/>
-      <c r="BJ22" s="24"/>
-      <c r="BK22" s="24"/>
-      <c r="BL22" s="67"/>
-      <c r="BM22" s="76"/>
-      <c r="BN22" s="76"/>
-      <c r="BO22" s="76"/>
-      <c r="BP22" s="76"/>
-      <c r="BQ22" s="76"/>
-      <c r="BR22" s="76"/>
-      <c r="BS22" s="76"/>
+        <v>1</v>
+      </c>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="21"/>
+      <c r="AD22" s="21"/>
+      <c r="AE22" s="21"/>
+      <c r="AF22" s="21"/>
+      <c r="AG22" s="21"/>
+      <c r="AH22" s="21"/>
+      <c r="AI22" s="21"/>
+      <c r="AJ22" s="21"/>
+      <c r="AK22" s="21"/>
+      <c r="AL22" s="21"/>
+      <c r="AM22" s="21"/>
+      <c r="AN22" s="21"/>
+      <c r="AO22" s="21"/>
+      <c r="AP22" s="21"/>
+      <c r="AQ22" s="21"/>
+      <c r="AR22" s="21"/>
+      <c r="AS22" s="21"/>
+      <c r="AT22" s="21"/>
+      <c r="AU22" s="21"/>
+      <c r="AV22" s="21"/>
+      <c r="AW22" s="21"/>
+      <c r="AX22" s="21"/>
+      <c r="AY22" s="21"/>
+      <c r="AZ22" s="21"/>
+      <c r="BA22" s="21"/>
+      <c r="BB22" s="21"/>
+      <c r="BC22" s="21"/>
+      <c r="BD22" s="21"/>
+      <c r="BE22" s="21"/>
+      <c r="BF22" s="21"/>
+      <c r="BG22" s="21"/>
+      <c r="BH22" s="21"/>
+      <c r="BI22" s="21"/>
+      <c r="BJ22" s="21"/>
+      <c r="BK22" s="21"/>
+      <c r="BL22" s="62"/>
+      <c r="BM22" s="71"/>
+      <c r="BN22" s="71"/>
+      <c r="BO22" s="71"/>
+      <c r="BP22" s="71"/>
+      <c r="BQ22" s="71"/>
+      <c r="BR22" s="71"/>
+      <c r="BS22" s="71"/>
     </row>
     <row r="23" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="38"/>
-      <c r="B23" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="48"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="45"/>
       <c r="D23" s="19">
         <v>0</v>
       </c>
-      <c r="E23" s="60">
-        <v>45096</v>
-      </c>
-      <c r="F23" s="60">
-        <v>45099</v>
+      <c r="E23" s="57">
+        <v>45093</v>
+      </c>
+      <c r="F23" s="57">
+        <v>45095</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="13">
         <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="24"/>
-      <c r="AA23" s="24"/>
-      <c r="AB23" s="24"/>
-      <c r="AC23" s="24"/>
-      <c r="AD23" s="24"/>
-      <c r="AE23" s="24"/>
-      <c r="AF23" s="24"/>
-      <c r="AG23" s="24"/>
-      <c r="AH23" s="24"/>
-      <c r="AI23" s="24"/>
-      <c r="AJ23" s="24"/>
-      <c r="AK23" s="24"/>
-      <c r="AL23" s="24"/>
-      <c r="AM23" s="24"/>
-      <c r="AN23" s="24"/>
-      <c r="AO23" s="24"/>
-      <c r="AP23" s="24"/>
-      <c r="AQ23" s="24"/>
-      <c r="AR23" s="24"/>
-      <c r="AS23" s="24"/>
-      <c r="AT23" s="24"/>
-      <c r="AU23" s="24"/>
-      <c r="AV23" s="24"/>
-      <c r="AW23" s="24"/>
-      <c r="AX23" s="24"/>
-      <c r="AY23" s="24"/>
-      <c r="AZ23" s="24"/>
-      <c r="BA23" s="24"/>
-      <c r="BB23" s="24"/>
-      <c r="BC23" s="24"/>
-      <c r="BD23" s="24"/>
-      <c r="BE23" s="24"/>
-      <c r="BF23" s="24"/>
-      <c r="BG23" s="24"/>
-      <c r="BH23" s="24"/>
-      <c r="BI23" s="24"/>
-      <c r="BJ23" s="24"/>
-      <c r="BK23" s="24"/>
-      <c r="BL23" s="67"/>
-      <c r="BM23" s="76"/>
-      <c r="BN23" s="76"/>
-      <c r="BO23" s="76"/>
-      <c r="BP23" s="76"/>
-      <c r="BQ23" s="76"/>
-      <c r="BR23" s="76"/>
-      <c r="BS23" s="76"/>
+        <v>3</v>
+      </c>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="21"/>
+      <c r="AF23" s="21"/>
+      <c r="AG23" s="21"/>
+      <c r="AH23" s="21"/>
+      <c r="AI23" s="21"/>
+      <c r="AJ23" s="21"/>
+      <c r="AK23" s="21"/>
+      <c r="AL23" s="21"/>
+      <c r="AM23" s="21"/>
+      <c r="AN23" s="21"/>
+      <c r="AO23" s="21"/>
+      <c r="AP23" s="21"/>
+      <c r="AQ23" s="21"/>
+      <c r="AR23" s="21"/>
+      <c r="AS23" s="21"/>
+      <c r="AT23" s="21"/>
+      <c r="AU23" s="21"/>
+      <c r="AV23" s="21"/>
+      <c r="AW23" s="21"/>
+      <c r="AX23" s="21"/>
+      <c r="AY23" s="21"/>
+      <c r="AZ23" s="21"/>
+      <c r="BA23" s="21"/>
+      <c r="BB23" s="21"/>
+      <c r="BC23" s="21"/>
+      <c r="BD23" s="21"/>
+      <c r="BE23" s="21"/>
+      <c r="BF23" s="21"/>
+      <c r="BG23" s="21"/>
+      <c r="BH23" s="21"/>
+      <c r="BI23" s="21"/>
+      <c r="BJ23" s="21"/>
+      <c r="BK23" s="21"/>
+      <c r="BL23" s="62"/>
+      <c r="BM23" s="71"/>
+      <c r="BN23" s="71"/>
+      <c r="BO23" s="71"/>
+      <c r="BP23" s="71"/>
+      <c r="BQ23" s="71"/>
+      <c r="BR23" s="71"/>
+      <c r="BS23" s="71"/>
     </row>
     <row r="24" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="38"/>
-      <c r="B24" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="48"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="45"/>
       <c r="D24" s="19">
         <v>0</v>
       </c>
-      <c r="E24" s="60">
+      <c r="E24" s="57">
+        <v>45096</v>
+      </c>
+      <c r="F24" s="57">
         <v>45099</v>
-      </c>
-      <c r="F24" s="60">
-        <v>45101</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13">
         <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="24"/>
-      <c r="AA24" s="24"/>
-      <c r="AB24" s="24"/>
-      <c r="AC24" s="24"/>
-      <c r="AD24" s="24"/>
-      <c r="AE24" s="24"/>
-      <c r="AF24" s="24"/>
-      <c r="AG24" s="24"/>
-      <c r="AH24" s="24"/>
-      <c r="AI24" s="24"/>
-      <c r="AJ24" s="24"/>
-      <c r="AK24" s="24"/>
-      <c r="AL24" s="24"/>
-      <c r="AM24" s="24"/>
-      <c r="AN24" s="24"/>
-      <c r="AO24" s="24"/>
-      <c r="AP24" s="24"/>
-      <c r="AQ24" s="24"/>
-      <c r="AR24" s="24"/>
-      <c r="AS24" s="24"/>
-      <c r="AT24" s="24"/>
-      <c r="AU24" s="24"/>
-      <c r="AV24" s="24"/>
-      <c r="AW24" s="24"/>
-      <c r="AX24" s="24"/>
-      <c r="AY24" s="24"/>
-      <c r="AZ24" s="24"/>
-      <c r="BA24" s="24"/>
-      <c r="BB24" s="24"/>
-      <c r="BC24" s="24"/>
-      <c r="BD24" s="24"/>
-      <c r="BE24" s="24"/>
-      <c r="BF24" s="24"/>
-      <c r="BG24" s="24"/>
-      <c r="BH24" s="24"/>
-      <c r="BI24" s="24"/>
-      <c r="BJ24" s="24"/>
-      <c r="BK24" s="24"/>
-      <c r="BL24" s="67"/>
-      <c r="BM24" s="76"/>
-      <c r="BN24" s="76"/>
-      <c r="BO24" s="76"/>
-      <c r="BP24" s="76"/>
-      <c r="BQ24" s="76"/>
-      <c r="BR24" s="76"/>
-      <c r="BS24" s="76"/>
+        <v>4</v>
+      </c>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="21"/>
+      <c r="AE24" s="21"/>
+      <c r="AF24" s="21"/>
+      <c r="AG24" s="21"/>
+      <c r="AH24" s="21"/>
+      <c r="AI24" s="21"/>
+      <c r="AJ24" s="21"/>
+      <c r="AK24" s="21"/>
+      <c r="AL24" s="21"/>
+      <c r="AM24" s="21"/>
+      <c r="AN24" s="21"/>
+      <c r="AO24" s="21"/>
+      <c r="AP24" s="21"/>
+      <c r="AQ24" s="21"/>
+      <c r="AR24" s="21"/>
+      <c r="AS24" s="21"/>
+      <c r="AT24" s="21"/>
+      <c r="AU24" s="21"/>
+      <c r="AV24" s="21"/>
+      <c r="AW24" s="21"/>
+      <c r="AX24" s="21"/>
+      <c r="AY24" s="21"/>
+      <c r="AZ24" s="21"/>
+      <c r="BA24" s="21"/>
+      <c r="BB24" s="21"/>
+      <c r="BC24" s="21"/>
+      <c r="BD24" s="21"/>
+      <c r="BE24" s="21"/>
+      <c r="BF24" s="21"/>
+      <c r="BG24" s="21"/>
+      <c r="BH24" s="21"/>
+      <c r="BI24" s="21"/>
+      <c r="BJ24" s="21"/>
+      <c r="BK24" s="21"/>
+      <c r="BL24" s="62"/>
+      <c r="BM24" s="71"/>
+      <c r="BN24" s="71"/>
+      <c r="BO24" s="71"/>
+      <c r="BP24" s="71"/>
+      <c r="BQ24" s="71"/>
+      <c r="BR24" s="71"/>
+      <c r="BS24" s="71"/>
     </row>
     <row r="25" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="38"/>
-      <c r="B25" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="48"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="45"/>
       <c r="D25" s="19">
         <v>0</v>
       </c>
-      <c r="E25" s="60">
+      <c r="E25" s="57">
+        <v>45099</v>
+      </c>
+      <c r="F25" s="57">
         <v>45101</v>
-      </c>
-      <c r="F25" s="60">
-        <v>45102</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="13">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="24"/>
-      <c r="AA25" s="24"/>
-      <c r="AB25" s="24"/>
-      <c r="AC25" s="24"/>
-      <c r="AD25" s="24"/>
-      <c r="AE25" s="24"/>
-      <c r="AF25" s="24"/>
-      <c r="AG25" s="24"/>
-      <c r="AH25" s="24"/>
-      <c r="AI25" s="24"/>
-      <c r="AJ25" s="24"/>
-      <c r="AK25" s="24"/>
-      <c r="AL25" s="24"/>
-      <c r="AM25" s="24"/>
-      <c r="AN25" s="24"/>
-      <c r="AO25" s="24"/>
-      <c r="AP25" s="24"/>
-      <c r="AQ25" s="24"/>
-      <c r="AR25" s="24"/>
-      <c r="AS25" s="24"/>
-      <c r="AT25" s="24"/>
-      <c r="AU25" s="24"/>
-      <c r="AV25" s="24"/>
-      <c r="AW25" s="24"/>
-      <c r="AX25" s="24"/>
-      <c r="AY25" s="24"/>
-      <c r="AZ25" s="24"/>
-      <c r="BA25" s="24"/>
-      <c r="BB25" s="24"/>
-      <c r="BC25" s="24"/>
-      <c r="BD25" s="24"/>
-      <c r="BE25" s="24"/>
-      <c r="BF25" s="24"/>
-      <c r="BG25" s="24"/>
-      <c r="BH25" s="24"/>
-      <c r="BI25" s="24"/>
-      <c r="BJ25" s="24"/>
-      <c r="BK25" s="24"/>
-      <c r="BL25" s="67"/>
-      <c r="BM25" s="76"/>
-      <c r="BN25" s="76"/>
-      <c r="BO25" s="76"/>
-      <c r="BP25" s="76"/>
-      <c r="BQ25" s="76"/>
-      <c r="BR25" s="76"/>
-      <c r="BS25" s="76"/>
+        <v>3</v>
+      </c>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="21"/>
+      <c r="AC25" s="21"/>
+      <c r="AD25" s="21"/>
+      <c r="AE25" s="21"/>
+      <c r="AF25" s="21"/>
+      <c r="AG25" s="21"/>
+      <c r="AH25" s="21"/>
+      <c r="AI25" s="21"/>
+      <c r="AJ25" s="21"/>
+      <c r="AK25" s="21"/>
+      <c r="AL25" s="21"/>
+      <c r="AM25" s="21"/>
+      <c r="AN25" s="21"/>
+      <c r="AO25" s="21"/>
+      <c r="AP25" s="21"/>
+      <c r="AQ25" s="21"/>
+      <c r="AR25" s="21"/>
+      <c r="AS25" s="21"/>
+      <c r="AT25" s="21"/>
+      <c r="AU25" s="21"/>
+      <c r="AV25" s="21"/>
+      <c r="AW25" s="21"/>
+      <c r="AX25" s="21"/>
+      <c r="AY25" s="21"/>
+      <c r="AZ25" s="21"/>
+      <c r="BA25" s="21"/>
+      <c r="BB25" s="21"/>
+      <c r="BC25" s="21"/>
+      <c r="BD25" s="21"/>
+      <c r="BE25" s="21"/>
+      <c r="BF25" s="21"/>
+      <c r="BG25" s="21"/>
+      <c r="BH25" s="21"/>
+      <c r="BI25" s="21"/>
+      <c r="BJ25" s="21"/>
+      <c r="BK25" s="21"/>
+      <c r="BL25" s="62"/>
+      <c r="BM25" s="71"/>
+      <c r="BN25" s="71"/>
+      <c r="BO25" s="71"/>
+      <c r="BP25" s="71"/>
+      <c r="BQ25" s="71"/>
+      <c r="BR25" s="71"/>
+      <c r="BS25" s="71"/>
     </row>
     <row r="26" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="48"/>
+      <c r="B26" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="45"/>
       <c r="D26" s="19">
         <v>0</v>
       </c>
-      <c r="E26" s="60">
+      <c r="E26" s="57">
+        <v>45101</v>
+      </c>
+      <c r="F26" s="57">
         <v>45102</v>
-      </c>
-      <c r="F26" s="60">
-        <v>45103</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="24"/>
-      <c r="AB26" s="24"/>
-      <c r="AC26" s="24"/>
-      <c r="AD26" s="24"/>
-      <c r="AE26" s="24"/>
-      <c r="AF26" s="24"/>
-      <c r="AG26" s="24"/>
-      <c r="AH26" s="24"/>
-      <c r="AI26" s="24"/>
-      <c r="AJ26" s="24"/>
-      <c r="AK26" s="24"/>
-      <c r="AL26" s="24"/>
-      <c r="AM26" s="24"/>
-      <c r="AN26" s="24"/>
-      <c r="AO26" s="24"/>
-      <c r="AP26" s="24"/>
-      <c r="AQ26" s="24"/>
-      <c r="AR26" s="24"/>
-      <c r="AS26" s="24"/>
-      <c r="AT26" s="24"/>
-      <c r="AU26" s="24"/>
-      <c r="AV26" s="24"/>
-      <c r="AW26" s="24"/>
-      <c r="AX26" s="24"/>
-      <c r="AY26" s="24"/>
-      <c r="AZ26" s="24"/>
-      <c r="BA26" s="24"/>
-      <c r="BB26" s="24"/>
-      <c r="BC26" s="24"/>
-      <c r="BD26" s="24"/>
-      <c r="BE26" s="24"/>
-      <c r="BF26" s="24"/>
-      <c r="BG26" s="24"/>
-      <c r="BH26" s="24"/>
-      <c r="BI26" s="24"/>
-      <c r="BJ26" s="24"/>
-      <c r="BK26" s="24"/>
-      <c r="BL26" s="67"/>
-      <c r="BM26" s="76"/>
-      <c r="BN26" s="76"/>
-      <c r="BO26" s="76"/>
-      <c r="BP26" s="76"/>
-      <c r="BQ26" s="76"/>
-      <c r="BR26" s="76"/>
-      <c r="BS26" s="76"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="21"/>
+      <c r="AC26" s="21"/>
+      <c r="AD26" s="21"/>
+      <c r="AE26" s="21"/>
+      <c r="AF26" s="21"/>
+      <c r="AG26" s="21"/>
+      <c r="AH26" s="21"/>
+      <c r="AI26" s="21"/>
+      <c r="AJ26" s="21"/>
+      <c r="AK26" s="21"/>
+      <c r="AL26" s="21"/>
+      <c r="AM26" s="21"/>
+      <c r="AN26" s="21"/>
+      <c r="AO26" s="21"/>
+      <c r="AP26" s="21"/>
+      <c r="AQ26" s="21"/>
+      <c r="AR26" s="21"/>
+      <c r="AS26" s="21"/>
+      <c r="AT26" s="21"/>
+      <c r="AU26" s="21"/>
+      <c r="AV26" s="21"/>
+      <c r="AW26" s="21"/>
+      <c r="AX26" s="21"/>
+      <c r="AY26" s="21"/>
+      <c r="AZ26" s="21"/>
+      <c r="BA26" s="21"/>
+      <c r="BB26" s="21"/>
+      <c r="BC26" s="21"/>
+      <c r="BD26" s="21"/>
+      <c r="BE26" s="21"/>
+      <c r="BF26" s="21"/>
+      <c r="BG26" s="21"/>
+      <c r="BH26" s="21"/>
+      <c r="BI26" s="21"/>
+      <c r="BJ26" s="21"/>
+      <c r="BK26" s="21"/>
+      <c r="BL26" s="62"/>
+      <c r="BM26" s="71"/>
+      <c r="BN26" s="71"/>
+      <c r="BO26" s="71"/>
+      <c r="BP26" s="71"/>
+      <c r="BQ26" s="71"/>
+      <c r="BR26" s="71"/>
+      <c r="BS26" s="71"/>
     </row>
     <row r="27" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23" t="str">
+      <c r="B27" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="45"/>
+      <c r="D27" s="19">
+        <v>0</v>
+      </c>
+      <c r="E27" s="57">
+        <v>45102</v>
+      </c>
+      <c r="F27" s="57">
+        <v>45103</v>
+      </c>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="26"/>
-      <c r="AB27" s="26"/>
-      <c r="AC27" s="26"/>
-      <c r="AD27" s="26"/>
-      <c r="AE27" s="26"/>
-      <c r="AF27" s="26"/>
-      <c r="AG27" s="26"/>
-      <c r="AH27" s="26"/>
-      <c r="AI27" s="26"/>
-      <c r="AJ27" s="26"/>
-      <c r="AK27" s="26"/>
-      <c r="AL27" s="26"/>
-      <c r="AM27" s="26"/>
-      <c r="AN27" s="26"/>
-      <c r="AO27" s="26"/>
-      <c r="AP27" s="26"/>
-      <c r="AQ27" s="26"/>
-      <c r="AR27" s="26"/>
-      <c r="AS27" s="26"/>
-      <c r="AT27" s="26"/>
-      <c r="AU27" s="26"/>
-      <c r="AV27" s="26"/>
-      <c r="AW27" s="26"/>
-      <c r="AX27" s="26"/>
-      <c r="AY27" s="26"/>
-      <c r="AZ27" s="26"/>
-      <c r="BA27" s="26"/>
-      <c r="BB27" s="26"/>
-      <c r="BC27" s="26"/>
-      <c r="BD27" s="26"/>
-      <c r="BE27" s="26"/>
-      <c r="BF27" s="26"/>
-      <c r="BG27" s="26"/>
-      <c r="BH27" s="26"/>
-      <c r="BI27" s="26"/>
-      <c r="BJ27" s="26"/>
-      <c r="BK27" s="26"/>
-      <c r="BL27" s="68"/>
-      <c r="BM27" s="76"/>
-      <c r="BN27" s="76"/>
-      <c r="BO27" s="76"/>
-      <c r="BP27" s="76"/>
-      <c r="BQ27" s="76"/>
-      <c r="BR27" s="76"/>
-      <c r="BS27" s="76"/>
+        <v>2</v>
+      </c>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="23"/>
+      <c r="AE27" s="23"/>
+      <c r="AF27" s="23"/>
+      <c r="AG27" s="23"/>
+      <c r="AH27" s="23"/>
+      <c r="AI27" s="23"/>
+      <c r="AJ27" s="23"/>
+      <c r="AK27" s="23"/>
+      <c r="AL27" s="23"/>
+      <c r="AM27" s="23"/>
+      <c r="AN27" s="23"/>
+      <c r="AO27" s="23"/>
+      <c r="AP27" s="23"/>
+      <c r="AQ27" s="23"/>
+      <c r="AR27" s="23"/>
+      <c r="AS27" s="23"/>
+      <c r="AT27" s="23"/>
+      <c r="AU27" s="23"/>
+      <c r="AV27" s="23"/>
+      <c r="AW27" s="23"/>
+      <c r="AX27" s="23"/>
+      <c r="AY27" s="23"/>
+      <c r="AZ27" s="23"/>
+      <c r="BA27" s="23"/>
+      <c r="BB27" s="23"/>
+      <c r="BC27" s="23"/>
+      <c r="BD27" s="23"/>
+      <c r="BE27" s="23"/>
+      <c r="BF27" s="23"/>
+      <c r="BG27" s="23"/>
+      <c r="BH27" s="23"/>
+      <c r="BI27" s="23"/>
+      <c r="BJ27" s="23"/>
+      <c r="BK27" s="23"/>
+      <c r="BL27" s="63"/>
+      <c r="BM27" s="71"/>
+      <c r="BN27" s="71"/>
+      <c r="BO27" s="71"/>
+      <c r="BP27" s="71"/>
+      <c r="BQ27" s="71"/>
+      <c r="BR27" s="71"/>
+      <c r="BS27" s="71"/>
     </row>
     <row r="28" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="11"/>
-      <c r="F29" s="40"/>
+      <c r="F29" s="37"/>
     </row>
     <row r="30" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="12"/>
@@ -4593,86 +4569,86 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="93" style="28" customWidth="1"/>
+    <col min="1" max="1" width="93" style="25" customWidth="1"/>
     <col min="2" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:2" s="27" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="26"/>
+    </row>
+    <row r="3" spans="1:2" s="31" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B3" s="32"/>
     </row>
-    <row r="3" spans="1:2" s="34" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
+    <row r="4" spans="1:2" s="28" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A4" s="29" t="s">
         <v>23</v>
-      </c>
-      <c r="B3" s="35"/>
-    </row>
-    <row r="4" spans="1:2" s="31" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A4" s="32" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
-        <v>25</v>
+      <c r="A5" s="30" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="25" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="28" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+    <row r="8" spans="1:2" s="28" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A8" s="29" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="31" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A8" s="32" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="25" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="28" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+    <row r="11" spans="1:2" s="28" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A11" s="29" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="31" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="32" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="25" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="28" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+    <row r="14" spans="1:2" s="28" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A14" s="29" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="31" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A14" s="32" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
-        <v>35</v>
+      <c r="A15" s="30" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
-        <v>36</v>
+      <c r="A16" s="30" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -4709,15 +4685,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5005,6 +4972,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
@@ -5018,14 +4994,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5044,4 +5012,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>